--- a/benchmarks/benchmark_data.xlsx
+++ b/benchmarks/benchmark_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maejimafumika/Desktop/Lab/research/products/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBF8BE0-12DD-684F-B7F0-EE31CE415AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF4E1C4-890D-C940-9DD9-A405AA8ED943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{B30940D0-2128-F24E-9700-CFE1634B0AD6}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="C" sheetId="3" r:id="rId3"/>
     <sheet name="BlueScript" sheetId="4" r:id="rId4"/>
     <sheet name="send data summary" sheetId="5" r:id="rId5"/>
+    <sheet name="playground" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>Sieve</t>
     <phoneticPr fontId="1"/>
@@ -208,6 +209,81 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ジカn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new Array</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>any[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>permute (macbook)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>permute (esp32)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>integer[] と any[] の差はgc_intarray_getとgc_array_getの差</t>
+    <rPh sb="19" eb="20">
+      <t>サハ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t xml:space="preserve">サ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元のコードとinteger[]の差はint_to_value(safe_value_to_int(*gc_array_getとgc_intarray_getの差</t>
+    <rPh sb="0" eb="1">
+      <t>モトノ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サハ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元：15.877</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sieve (macbook)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sieve(esp32)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元々</t>
+    <rPh sb="0" eb="1">
+      <t>モトモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元：0.24</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2886,7 +2962,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3030,7 +3106,7 @@
         <v>7.5945413191811975</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
+        <f>C5 / D5</f>
         <v>23.284550573014418</v>
       </c>
       <c r="G5" s="3">
@@ -3645,7 +3721,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3896,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F39BCC-5C7F-9849-BEF0-9E36E8FA4450}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:M6"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4302,4 +4378,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DD14EC-D6D8-784D-94B1-E46E841F758C}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C2">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C3">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C4">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C10">
+        <v>5.242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C11">
+        <v>3.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>